--- a/output/2023-03-03/gen_parameter_20230303.xlsx
+++ b/output/2023-03-03/gen_parameter_20230303.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="int_mapping" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="system_name" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="add_suffix_system_name" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +416,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,84 +445,248 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>- LIST_INT_MAPPING</t>
+          <t>MVP1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['INT_E_LQ_GL_ACCT_SEGMENT_D','INT_E_LQ_GL_BAL_SUM_OC_D','INT_E_LQ_GL_BAL_SUM_RC_D','INT_E_LQ_GL_OC_SEGMENT_D','INT_E_LQ_GL_PROD_SEGMENT_D','INT_E_LQ_GL_RC_SEGMENT_D','INT_E_LQ_IM_ST_DAILY_D','INT_E_LQ_LN_BR_FOREIGN_MKT_D','INT_L_BI_EDW_PARAM_ATS_COMP_CD','INT_L_CCP_EDW_TXNALSB2K','INT_L_EPP_EDW_RPTDDET','INT_L_EPP_EDW_RPTDDET_T1','INT_L_IM_FC_IMBCRM_1_0','INT_L_IM_IMACTM_A_0','INT_L_RBF_EDW_SDL_CLEANSING','INT_L_RCR_EVENTCODE','INT_L_WLS_EDW_WLSPARAM','INT_L_WLS_EDW_WLSPROD','INT_T_CCP_TXNALSB2K_01','INT_T_RCR_EVENTCODE_01','INT_T_WLS_WLSPROD_01']</t>
+          <t>['INT_L_EPP_EDW_RPTDDET','INT_L_EPP_EDW_RPTDDET_T1','INT_L_IM_FC_IMBCRM_1_0','INT_L_IM_IMACTM_A_0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MVP2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>- LIST_SYSTEM_NAME</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ACTM,AM,AML,ATM,BCC,BCM,BI,BIFI,CB,CCB,CCP,CDD,CFO,CHYO,CIM,CSENT,CSM,CVA,EDW,EFS,ENL,ESL,ESN,FES,GN,INV,IPS,LCS,LEAD_UL,LQ,MMS,MRP,MUREX,OBM,OLS,PDPA,PLPS,PMH,PRM,RBF,RCR,RDS,SBG,TMS,TRD,WLS,WSS,SCBL</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>- LIST_FULL_SYSTEM_NAME</t>
+          <t>['INT_E_LQ_GL_ACCT_SEGMENT_D','INT_E_LQ_GL_BAL_SUM_OC_D','INT_E_LQ_GL_BAL_SUM_RC_D','INT_E_LQ_GL_OC_SEGMENT_D','INT_E_LQ_GL_PROD_SEGMENT_D','INT_E_LQ_GL_RC_SEGMENT_D','INT_E_LQ_IM_ST_DAILY_D','INT_E_LQ_LN_BR_FOREIGN_MKT_D','INT_L_CCP_EDW_TXNALSB2K','INT_T_CCP_TXNALSB2K_01','INT_L_RCR_EVENTCODE','INT_T_RCR_EVENTCODE_01','INT_L_WLS_EDW_WLSPARAM','INT_L_WLS_EDW_WLSPROD','INT_T_WLS_WLSPROD_01']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['INT_L_RBF_EDW_SDL_CLEANSING']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_BI','REGISTER_CONFIG_SYSTEM_BIFI','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_CFO','REGISTER_CONFIG_SYSTEM_CHYO','REGISTER_CONFIG_SYSTEM_CIM','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_EDW','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_ESL','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_MMS','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_PDPA','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_PRM','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_SBG','REGISTER_CONFIG_SYSTEM_TMS','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_WLS','REGISTER_CONFIG_SYSTEM_WSS','REGISTER_CONFIG_SYSTEM_SCBL']</t>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['INT_L_BI_EDW_PARAM_ATS_COMP_CD']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- LIST_SCHEMA_NAME</t>
+          <t>MVP6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['DSGEDW','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEURCR']</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>- LIST_TABLE_NAME</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>['RBF_SDL_CLEANSING_1_0','CCP_TXNALSB2K_1_0','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VRCR_FES_RCNCL_PNTX_TIMEOUT','WLS_WLSPARAM_1_0','WLS_WLSPROD_1_0','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VRCR_FES_RCNCL_PNTX_TIMEOUT']</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>- LIST DDL</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
           <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATM,GN,INV,LCS,MMS,MUREX,PLPS,PMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ATM,BCM,CCP,CFO,CHYO,EFS,IPS,LQ,PDPA,PMH,RCR,TMS,WLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ACTM,AM,BCC,CB,CCB,CIM,CSENT,CVA,ESN,FES,LEAD_UL,MRP,OLS,PRM,RBF,TRD,WSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BI,BIFI,EDW,ESL,SBG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AML,CDD,CSM,ENL,LCS,OBM,RDS,SCBL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_MMS','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_PMH']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_CFO','REGISTER_CONFIG_SYSTEM_CHYO','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_PDPA','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_TMS','REGISTER_CONFIG_SYSTEM_WLS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_CIM','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_PRM','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_WSS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_BI','REGISTER_CONFIG_SYSTEM_BIFI','REGISTER_CONFIG_SYSTEM_EDW','REGISTER_CONFIG_SYSTEM_ESL','REGISTER_CONFIG_SYSTEM_SBG']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_SCBL']</t>
         </is>
       </c>
     </row>

--- a/output/2023-03-03/gen_parameter_20230303.xlsx
+++ b/output/2023-03-03/gen_parameter_20230303.xlsx
@@ -11,6 +11,8 @@
     <sheet name="int_mapping" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="system_name" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="add_suffix_system_name" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="table_definition" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ddl" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -693,4 +695,260 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>schema: []</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>table: []</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>schema: ['FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','FILE','VEURCR','FILE','FILE']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>table: ['CCP_TXNALSB2K_1_0','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VRCR_FES_RCNCL_PNTX_TIMEOUT','VRCR_FES_RCNCL_PNTX_TIMEOUT','WLS_WLSPARAM_1_0','WLS_WLSPROD_1_0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>schema: ['DSGEDW']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>table: ['RBF_SDL_CLEANSING_1_0']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>schema: []</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>table: []</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>schema: []</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>table: []</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>['P1VSGMF.ST_STACTM_2_0',
+'P1VTXEDW.VRBF_SDL20_PTPA_01',
+'P1VSGMF.GN_MTLOG_1_0',
+'P1VTXEDW.VUL_QUOTATIONACCT_01']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>['P1VEUATM.VATM_PAYROLL_ACCT',
+'P1VEUTMS.VTMS_IRORSCG_D',
+'P1VEULQ.VLQ_08_GL_BAL_SUM_OC_D',
+'P1VEULQ.VLQ_07_GL_BAL_SUM_RC_D']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['P1VEUPRM.TVPRM_CD_FES',
+'P1VEUPRM.TVPRM_CD_ENET']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['P1VTXEDW.VESL_T3_PARTY_TELEPHONE']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['P1VEUOBR.VOBR_AMMSAC01',
+'P1VEUOBR.VOBR_IXQDWFEV']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/2023-03-03/gen_parameter_20230303.xlsx
+++ b/output/2023-03-03/gen_parameter_20230303.xlsx
@@ -9,10 +9,15 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="int_mapping" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="system_name" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="add_suffix_system_name" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="table_definition" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ddl" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="int_mapping2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="system_name" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="system_name2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="add_suffix_system_name" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="add_suffix_system_name2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="table_definition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="table_definition2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ddl" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ddl2" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +435,454 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>VIEW_TABLE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Owner</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DEPLOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P1VEUATM.VATM_PAYROLL_ACCT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P1VEUTMS.VTMS_IRORSCG_D</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TMS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P1VTXEDW.VESL_T3_PARTY_TELEPHONE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EDW_ESL_DAILY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P1VEUPRM.TVPRM_CD_FES</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P1VEUPRM.TVPRM_CD_ENET</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P1VSGMF.ST_STACTM_2_0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ST_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P1VTXEDW.VRBF_SDL20_PTPA_01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RBF_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MVP1 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P1VSGMF.GN_MTLOG_1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P1VTXEDW.VUL_QUOTATIONACCT_01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LEAD_UL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P1VEUOBR.VOBR_AMMSAC01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OBR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P1VEUOBR.VOBR_IXQDWFEV</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OBR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P1VEULQ.VLQ_08_GL_BAL_SUM_OC_D</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P1VEULQ.VLQ_07_GL_BAL_SUM_RC_D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -454,7 +906,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['INT_L_EPP_EDW_RPTDDET','INT_L_EPP_EDW_RPTDDET_T1','INT_L_IM_FC_IMBCRM_1_0','INT_L_IM_IMACTM_A_0']</t>
+          <t>['P1VSGMF.ST_STACTM_2_0',
+'P1VTXEDW.VRBF_SDL20_PTPA_01',
+'P1VSGMF.GN_MTLOG_1_0',
+'P1VTXEDW.VUL_QUOTATIONACCT_01']</t>
         </is>
       </c>
     </row>
@@ -468,7 +923,10 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['INT_E_LQ_GL_ACCT_SEGMENT_D','INT_E_LQ_GL_BAL_SUM_OC_D','INT_E_LQ_GL_BAL_SUM_RC_D','INT_E_LQ_GL_OC_SEGMENT_D','INT_E_LQ_GL_PROD_SEGMENT_D','INT_E_LQ_GL_RC_SEGMENT_D','INT_E_LQ_IM_ST_DAILY_D','INT_E_LQ_LN_BR_FOREIGN_MKT_D','INT_L_CCP_EDW_TXNALSB2K','INT_T_CCP_TXNALSB2K_01','INT_L_RCR_EVENTCODE','INT_T_RCR_EVENTCODE_01','INT_L_WLS_EDW_WLSPARAM','INT_L_WLS_EDW_WLSPROD','INT_T_WLS_WLSPROD_01']</t>
+          <t>['P1VEUATM.VATM_PAYROLL_ACCT',
+'P1VEUTMS.VTMS_IRORSCG_D',
+'P1VEULQ.VLQ_08_GL_BAL_SUM_OC_D',
+'P1VEULQ.VLQ_07_GL_BAL_SUM_RC_D']</t>
         </is>
       </c>
     </row>
@@ -482,7 +940,8 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['INT_L_RBF_EDW_SDL_CLEANSING']</t>
+          <t>['P1VEUPRM.TVPRM_CD_FES',
+'P1VEUPRM.TVPRM_CD_ENET']</t>
         </is>
       </c>
     </row>
@@ -496,7 +955,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['INT_L_BI_EDW_PARAM_ATS_COMP_CD']</t>
+          <t>['P1VTXEDW.VESL_T3_PARTY_TELEPHONE']</t>
         </is>
       </c>
     </row>
@@ -510,8 +969,780 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
+          <t>['P1VEUOBR.VOBR_AMMSAC01',
+'P1VEUOBR.VOBR_IXQDWFEV']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LIST</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>COL_NM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TABLE_NAME</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DEPLOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>INT_T_CSL_08_CODE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CSL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>INT_T_WLS_WLSPROD_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INT_L_WLS_EDW_WLSPROD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INT_L_WLS_EDW_WLSPARAM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INT_L_LEAD_EDW_UL_STD_STAFF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LEAD_UL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_GL_ACCT_SEGMENT_D</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_GL_RC_SEGMENT_D</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_IM_ST_DAILY_D</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_LN_BR_FOREIGN_MKT_D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_GL_BAL_SUM_RC_D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_GL_PROD_SEGMENT_D</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_GL_BAL_SUM_OC_D</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>INT_E_LQ_GL_OC_SEGMENT_D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>INT_L_RBF_EDW_SDL_CLEANSING</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RBF_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>INT_L_EPP_EDW_RPTDDET_T1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EPP_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INT_L_EPP_EDW_RPTDDET</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EPP_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>INT_L_LEAD_EDW_AUTO_APPL_SLA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LEAD_AUTO_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>INT_T_RCR_EVENTCODE_01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>RCR_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>INT_L_RCR_EVENTCODE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>RCR_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INT_L_BI_EDW_PARAM_ATS_COMP_CD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BI_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INT_T_CCP_TXNALSB2K_01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CCP_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INT_L_CCP_EDW_TXNALSB2K</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CCP_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>INT_L_IM_IMACTM_A_0</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>IM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>INT_L_IM_FC_IMBCRM_1_0</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>IM_FCD_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -543,7 +1774,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATM,GN,INV,LCS,MMS,MUREX,PLPS,PMH</t>
+          <t>['INT_L_LEAD_EDW_UL_STD_STAFF','INT_L_EPP_EDW_RPTDDET_T1','INT_L_EPP_EDW_RPTDDET','INT_L_LEAD_EDW_AUTO_APPL_SLA','INT_L_IM_IMACTM_A_0','INT_L_IM_FC_IMBCRM_1_0']</t>
         </is>
       </c>
     </row>
@@ -557,7 +1788,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATM,BCM,CCP,CFO,CHYO,EFS,IPS,LQ,PDPA,PMH,RCR,TMS,WLS</t>
+          <t>['INT_T_WLS_WLSPROD_01','INT_L_WLS_EDW_WLSPROD','INT_L_WLS_EDW_WLSPARAM','INT_E_LQ_GL_ACCT_SEGMENT_D','INT_E_LQ_GL_RC_SEGMENT_D','INT_E_LQ_IM_ST_DAILY_D','INT_E_LQ_LN_BR_FOREIGN_MKT_D','INT_E_LQ_GL_BAL_SUM_RC_D','INT_E_LQ_GL_PROD_SEGMENT_D','INT_E_LQ_GL_BAL_SUM_OC_D','INT_E_LQ_GL_OC_SEGMENT_D','INT_T_RCR_EVENTCODE_01','INT_L_RCR_EVENTCODE','INT_T_CCP_TXNALSB2K_01','INT_L_CCP_EDW_TXNALSB2K']</t>
         </is>
       </c>
     </row>
@@ -571,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ACTM,AM,BCC,CB,CCB,CIM,CSENT,CVA,ESN,FES,LEAD_UL,MRP,OLS,PRM,RBF,TRD,WSS</t>
+          <t>['INT_T_CSL_08_CODE','INT_L_RBF_EDW_SDL_CLEANSING']</t>
         </is>
       </c>
     </row>
@@ -585,7 +1816,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BI,BIFI,EDW,ESL,SBG</t>
+          <t>['INT_L_BI_EDW_PARAM_ATS_COMP_CD']</t>
         </is>
       </c>
     </row>
@@ -599,7 +1830,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AML,CDD,CSM,ENL,LCS,OBM,RDS,SCBL</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -609,6 +1840,2771 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LIST</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>COL_NM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TABLE_NAME</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DEPLOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WLS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WLS_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BI_DSF_RBF_DAILY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CCB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CCB_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5DSF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5DSF_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EDW_UNS_LEAD_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CVA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CVA_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FES_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>OBM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OBM_DSF_DAILY_HS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BCC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BCC_DOWNSTEAM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PMH_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IMEXI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IMEX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IMEX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>IMEX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FES_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CDD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CDD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BI_DSF_TAX_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CSL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CSL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CB_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TMS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TMS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>EDW_UNS_LEAD_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BI_DSF_EQU_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CCP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CCP_DSF_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BI_DSF_BOT_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CSENT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CSENT_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WLS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OLS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>EDW_OLS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PMH_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MUREX</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MUREX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ATM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WSS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>WSS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CCB</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CCB_DSF_AML_PER</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>INV_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EFS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EDW_EFS_DAILY</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PMH_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RDS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>RDS_EP_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MRP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MRP_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ESN_DSF_SYNC_DAILY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EDW</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EDW_DMC MONTHLY</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BI_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>OLS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>EDW_OLS_B2K_DAILY</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LEAD_UL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CAL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CAL_D_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BCM_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LQ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LQ_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ENL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ENL_DSF_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TRD_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BIFI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BIFI_SRC_MONTHLY11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CVA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CVA_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LCS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LCS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LCS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LCS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LQ</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BIFI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BIFI_DSF_GL_MONTHLY12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BI_DSF_FRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ESN_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IPS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>IPS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ATM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AML_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RCR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>RCR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EDW_ESL_CC_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RBF</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>RBF_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACTM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ACTM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RBF</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>RBF_DSF_REPORT_DAILY</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PLPS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PLPS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TRD_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CHYO</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CHYO_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TRD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CB_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CIM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CIM_DSF_MONTHLY_EXT</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PDPA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PDPA_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BI_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>EDW_ESL_MONTHLY_HP_DAY15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>EDW_ESL_MONTHLY_LCS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BI_DSF_MIS_PER</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>EDW_ESL_DAILY</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MMS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MMS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NSS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>EDW_NSS_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EDW</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>BI_DSF_BOT_PER</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CSM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CSM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AM_DSF_YEARLY</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CFO_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SCBL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DS_INT_CONFIG</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SCBL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +4628,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_MMS','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_PMH']</t>
+          <t>PMH,IMEXI,IMEX,GN,MUREX,INV,LEAD_UL,LCS,ATM,PLPS,AM,MMS</t>
         </is>
       </c>
     </row>
@@ -646,7 +4642,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_CFO','REGISTER_CONFIG_SYSTEM_CHYO','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_PDPA','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_TMS','REGISTER_CONFIG_SYSTEM_WLS']</t>
+          <t>WLS,TMS,CCP,PMH,ATM,EFS,BCM,LQ,IPS,RCR,CHYO,PDPA,CFO</t>
         </is>
       </c>
     </row>
@@ -660,7 +4656,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_CIM','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_PRM','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_WSS']</t>
+          <t>CCB,LEAD_UL,CVA,FES,BCC,CSL,CB,CSENT,OLS,WSS,SL,MRP,ESN,CAL,TRD,RBF,ACTM,CIM,NSS,PRM,AM</t>
         </is>
       </c>
     </row>
@@ -674,7 +4670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_BI','REGISTER_CONFIG_SYSTEM_BIFI','REGISTER_CONFIG_SYSTEM_EDW','REGISTER_CONFIG_SYSTEM_ESL','REGISTER_CONFIG_SYSTEM_SBG']</t>
+          <t>BI,SBG,EDW,BIFI,ESL</t>
         </is>
       </c>
     </row>
@@ -688,7 +4684,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_SCBL']</t>
+          <t>5DSF,OBM,CDD,RDS,ENL,LCS,AML,CSM,SCBL</t>
         </is>
       </c>
     </row>
@@ -697,7 +4693,4057 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LIST</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>COL_NM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TABLE_NAME</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SUFFIX</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DEPLOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WLS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WLS_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_WLS</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BI_DSF_RBF_DAILY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CCB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CCB_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CCB</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5DSF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5DSF_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_5DSF</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EDW_UNS_LEAD_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CVA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CVA_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CVA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FES_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_FES</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>OBM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OBM_DSF_DAILY_HS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_OBM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BCC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BCC_DOWNSTEAM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BCC</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PMH_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IMEXI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>IMEX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_IMEXI</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IMEX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>IMEX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_IMEX</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FES_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_FES</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CDD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CDD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CDD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BI_DSF_TAX_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CSL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CSL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CSL</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CB_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CB</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TMS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TMS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_TMS</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_GN</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>EDW_UNS_LEAD_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BI_DSF_EQU_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CCP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CCP_DSF_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CCP</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_SBG</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BI_DSF_BOT_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CSENT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CSENT_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CSENT</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WLS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_WLS</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OLS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>EDW_OLS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_OLS</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PMH_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MUREX</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MUREX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_MUREX</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ATM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WSS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>WSS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_WSS</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CCB</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CCB_DSF_AML_PER</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CCB</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>INV_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_INV</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>EFS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EDW_EFS_DAILY</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_EFS</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PMH_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>RDS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>RDS_EP_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_RDS</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_SL</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MRP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MRP_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_MRP</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ESN_DSF_SYNC_DAILY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ESN</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EDW</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EDW_DMC MONTHLY</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_EDW</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BI_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>OLS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>EDW_OLS_B2K_DAILY</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_OLS</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LEAD_UL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CAL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CAL_D_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CAL</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BCM_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BCM</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LQ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LQ_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LQ</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ENL</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ENL_DSF_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ENL</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TRD_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BIFI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BIFI_SRC_MONTHLY11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BIFI</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CVA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CVA_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CVA</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LCS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LCS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LCS</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LCS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LCS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LCS</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LQ</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_LQ</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BIFI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BIFI_DSF_GL_MONTHLY12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BIFI</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BI_DSF_FRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ESN_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ESN</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IPS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>IPS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_IPS</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ATM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AML_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RCR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>RCR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_RCR</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EDW_ESL_CC_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RBF</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>RBF_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_RBF</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACTM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ACTM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ACTM</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RBF</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>RBF_DSF_REPORT_DAILY</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_RBF</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PLPS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PLPS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PLPS</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TRD_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CHYO</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CHYO_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CHYO</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TRD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CB_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CB</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CIM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CIM_DSF_MONTHLY_EXT</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CIM</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PDPA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PDPA_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PDPA</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BI_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>EDW_ESL_MONTHLY_HP_DAY15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>EDW_ESL_MONTHLY_LCS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_SBG</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BI_DSF_MIS_PER</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>EDW_ESL_DAILY</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AM</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MMS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MMS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_MMS</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NSS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>EDW_NSS_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_NSS</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EDW</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_EDW</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>BI_DSF_BOT_PER</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PRM</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CSM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CSM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CSM</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AM_DSF_YEARLY</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AM</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CFO_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_CFO</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SCBL</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DS_INT_CONFIG</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SCBL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_SCBL</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_IMEXI','REGISTER_CONFIG_SYSTEM_IMEX','REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_MMS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_WLS','REGISTER_CONFIG_SYSTEM_TMS','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_CHYO','REGISTER_CONFIG_SYSTEM_PDPA','REGISTER_CONFIG_SYSTEM_CFO']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_CSL','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_WSS','REGISTER_CONFIG_SYSTEM_SL','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_CAL','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_CIM','REGISTER_CONFIG_SYSTEM_NSS','REGISTER_CONFIG_SYSTEM_PRM','REGISTER_CONFIG_SYSTEM_AM']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_BI','REGISTER_CONFIG_SYSTEM_SBG','REGISTER_CONFIG_SYSTEM_EDW','REGISTER_CONFIG_SYSTEM_BIFI','REGISTER_CONFIG_SYSTEM_ESL']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>['REGISTER_CONFIG_SYSTEM_5DSF','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_SCBL']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LIST</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>COL_NM</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>TABLE_NAME</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DEPLOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FILE,WLS_WLSPROD_1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FILE,WLS_WLSPARAM_1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DSGEDW,CCB_PARM_CCB_BAL_TYPE_1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CCB_DSF_AML_PER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_08_GL_BAL_SUM_OC_D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_03_GL_RC_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_05_GL_ACCT_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_07_GL_BAL_SUM_RC_D</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_01_IM_ST_DAILY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_09_LN_BR_FOREIGN_MKT_D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_04_GL_OC_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_05_GL_ACCT_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_07_GL_BAL_SUM_RC_D</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_04_GL_OC_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_08_GL_BAL_SUM_OC_D</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_06_GL_PROD_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VEULQ,VLQ_01_IM_ST_DAILY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_09_LN_BR_FOREIGN_MKT_D</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_03_GL_RC_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FILE,VLQ_06_GL_PROD_SEGMENT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LQ_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>VEURCR,VRCR_FES_RCNCL_PNTX_TIMEOUT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RCR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FILE,VRCR_FES_RCNCL_PNTX_TIMEOUT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>RCR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DSGEDW,RBF_SDL_CLEANSING_1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>RBF_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FILE,CCP_TXNALSB2K_1_0</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CCP_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -749,7 +8795,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schema: ['FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','VEULQ','FILE','VEURCR','FILE','FILE']</t>
+          <t>schema: ['FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','FILE','VEULQ','VEULQ','FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','FILE','FILE','FILE','VEURCR','FILE','FILE']</t>
         </is>
       </c>
     </row>
@@ -763,7 +8809,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>table: ['CCP_TXNALSB2K_1_0','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VRCR_FES_RCNCL_PNTX_TIMEOUT','VRCR_FES_RCNCL_PNTX_TIMEOUT','WLS_WLSPARAM_1_0','WLS_WLSPROD_1_0']</t>
+          <t>table: ['WLS_WLSPROD_1_0','WLS_WLSPARAM_1_0','VLQ_08_GL_BAL_SUM_OC_D','VLQ_03_GL_RC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_01_IM_ST_DAILY','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_04_GL_OC_SEGMENT','VLQ_08_GL_BAL_SUM_OC_D','VLQ_06_GL_PROD_SEGMENT','VLQ_01_IM_ST_DAILY','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_03_GL_RC_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VRCR_FES_RCNCL_PNTX_TIMEOUT','VRCR_FES_RCNCL_PNTX_TIMEOUT','CCP_TXNALSB2K_1_0']</t>
         </is>
       </c>
     </row>
@@ -777,7 +8823,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schema: ['DSGEDW']</t>
+          <t>schema: ['DSGEDW','DSGEDW']</t>
         </is>
       </c>
     </row>
@@ -791,7 +8837,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>table: ['RBF_SDL_CLEANSING_1_0']</t>
+          <t>table: ['CCB_PARM_CCB_BAL_TYPE_1_0','RBF_SDL_CLEANSING_1_0']</t>
         </is>
       </c>
     </row>
@@ -848,103 +8894,6 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>table: []</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>MVP1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>['P1VSGMF.ST_STACTM_2_0',
-'P1VTXEDW.VRBF_SDL20_PTPA_01',
-'P1VSGMF.GN_MTLOG_1_0',
-'P1VTXEDW.VUL_QUOTATIONACCT_01']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>['P1VEUATM.VATM_PAYROLL_ACCT',
-'P1VEUTMS.VTMS_IRORSCG_D',
-'P1VEULQ.VLQ_08_GL_BAL_SUM_OC_D',
-'P1VEULQ.VLQ_07_GL_BAL_SUM_RC_D']</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MVP3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>['P1VEUPRM.TVPRM_CD_FES',
-'P1VEUPRM.TVPRM_CD_ENET']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>['P1VTXEDW.VESL_T3_PARTY_TELEPHONE']</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>['P1VEUOBR.VOBR_AMMSAC01',
-'P1VEUOBR.VOBR_IXQDWFEV']</t>
         </is>
       </c>
     </row>

--- a/output/2023-03-03/gen_parameter_20230303.xlsx
+++ b/output/2023-03-03/gen_parameter_20230303.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="int_mapping" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="int_mapping2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="list_int_mapping" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="system_name" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="system_name2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="list_system_name" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="add_suffix_system_name" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="add_suffix_system_name2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="list_add_suffix_system_name" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="table_definition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="table_definition2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="list_table_definition" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="ddl" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ddl2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="list_ddl" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,6 +874,36 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P1VTPBIT.VBI_DIM_DATE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BI_DSF_DDATE_YEARLY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v/>
       </c>
     </row>
@@ -955,7 +985,8 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['P1VTXEDW.VESL_T3_PARTY_TELEPHONE']</t>
+          <t>['P1VTXEDW.VESL_T3_PARTY_TELEPHONE',
+'P1VTPBIT.VBI_DIM_DATE']</t>
         </is>
       </c>
     </row>
@@ -985,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,7 +1059,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INT_T_CSL_08_CODE</t>
+          <t>INT_E_LQ_GL_PROD_SEGMENT_D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1043,12 +1074,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CSL_DSF_DAILY</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1058,7 +1089,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INT_T_WLS_WLSPROD_01</t>
+          <t>INT_E_LQ_LN_BR_FOREIGN_MKT_D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1073,7 +1104,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1088,7 +1119,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INT_L_WLS_EDW_WLSPROD</t>
+          <t>INT_E_LQ_GL_ACCT_SEGMENT_D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1103,7 +1134,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1118,7 +1149,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INT_L_WLS_EDW_WLSPARAM</t>
+          <t>INT_E_LQ_GL_BAL_SUM_OC_D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1133,7 +1164,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1148,7 +1179,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INT_L_LEAD_EDW_UL_STD_STAFF</t>
+          <t>INT_E_LQ_GL_BAL_SUM_RC_D</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1163,12 +1194,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LEAD_UL_SRC_DAILY</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1178,7 +1209,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INT_E_LQ_GL_ACCT_SEGMENT_D</t>
+          <t>INT_E_LQ_GL_RC_SEGMENT_D</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1208,7 +1239,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INT_E_LQ_GL_RC_SEGMENT_D</t>
+          <t>INT_E_LQ_IM_ST_DAILY_D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1238,7 +1269,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INT_E_LQ_IM_ST_DAILY_D</t>
+          <t>INT_E_LQ_GL_OC_SEGMENT_D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1268,7 +1299,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INT_E_LQ_LN_BR_FOREIGN_MKT_D</t>
+          <t>INT_T_WLS_WLSPROD_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1283,7 +1314,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1298,7 +1329,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INT_E_LQ_GL_BAL_SUM_RC_D</t>
+          <t>INT_L_WLS_EDW_WLSPARAM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1313,7 +1344,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1328,7 +1359,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INT_E_LQ_GL_PROD_SEGMENT_D</t>
+          <t>INT_L_WLS_EDW_WLSPROD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1343,7 +1374,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1358,7 +1389,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INT_E_LQ_GL_BAL_SUM_OC_D</t>
+          <t>INT_L_LEAD_EDW_UL_STD_STAFF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1373,12 +1404,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>LEAD_UL_SRC_DAILY</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1388,7 +1419,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INT_E_LQ_GL_OC_SEGMENT_D</t>
+          <t>INT_T_CSL_08_CODE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1403,12 +1434,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>CSL_DSF_DAILY</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1448,7 +1479,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INT_L_EPP_EDW_RPTDDET_T1</t>
+          <t>INT_T_AML_ACCOUNT_DIM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1463,12 +1494,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EPP_SRC_MONTHLY</t>
+          <t>AML_DSF_DAILY3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1478,7 +1509,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INT_L_EPP_EDW_RPTDDET</t>
+          <t>INT_L_EPP_EDW_RPTDDET_T1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1508,7 +1539,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INT_L_LEAD_EDW_AUTO_APPL_SLA</t>
+          <t>INT_L_EPP_EDW_RPTDDET</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1523,7 +1554,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LEAD_AUTO_SRC_DAILY</t>
+          <t>EPP_SRC_MONTHLY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1598,7 +1629,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INT_L_BI_EDW_PARAM_ATS_COMP_CD</t>
+          <t>INT_L_LEAD_EDW_AUTO_APPL_SLA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1613,12 +1644,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BI_DSF_PER</t>
+          <t>LEAD_AUTO_SRC_DAILY</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1688,7 +1719,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INT_L_IM_IMACTM_A_0</t>
+          <t>INT_L_IM_FC_IMBCRM_1_0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1703,7 +1734,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IM_SRC_DAILY</t>
+          <t>IM_FCD_SRC_DAILY</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1718,7 +1749,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INT_L_IM_FC_IMBCRM_1_0</t>
+          <t>INT_L_IM_IMACTM_A_0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1733,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IM_FCD_SRC_DAILY</t>
+          <t>IM_SRC_DAILY</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1742,6 +1773,36 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INT_L_BI_EDW_PARAM_ATS_COMP_CD</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BI_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v/>
       </c>
     </row>
@@ -1774,7 +1835,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['INT_L_LEAD_EDW_UL_STD_STAFF','INT_L_EPP_EDW_RPTDDET_T1','INT_L_EPP_EDW_RPTDDET','INT_L_LEAD_EDW_AUTO_APPL_SLA','INT_L_IM_IMACTM_A_0','INT_L_IM_FC_IMBCRM_1_0']</t>
+          <t>['INT_L_LEAD_EDW_UL_STD_STAFF','INT_L_EPP_EDW_RPTDDET_T1','INT_L_EPP_EDW_RPTDDET','INT_L_LEAD_EDW_AUTO_APPL_SLA','INT_L_IM_FC_IMBCRM_1_0','INT_L_IM_IMACTM_A_0']</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1849,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['INT_T_WLS_WLSPROD_01','INT_L_WLS_EDW_WLSPROD','INT_L_WLS_EDW_WLSPARAM','INT_E_LQ_GL_ACCT_SEGMENT_D','INT_E_LQ_GL_RC_SEGMENT_D','INT_E_LQ_IM_ST_DAILY_D','INT_E_LQ_LN_BR_FOREIGN_MKT_D','INT_E_LQ_GL_BAL_SUM_RC_D','INT_E_LQ_GL_PROD_SEGMENT_D','INT_E_LQ_GL_BAL_SUM_OC_D','INT_E_LQ_GL_OC_SEGMENT_D','INT_T_RCR_EVENTCODE_01','INT_L_RCR_EVENTCODE','INT_T_CCP_TXNALSB2K_01','INT_L_CCP_EDW_TXNALSB2K']</t>
+          <t>['INT_E_LQ_GL_PROD_SEGMENT_D','INT_E_LQ_LN_BR_FOREIGN_MKT_D','INT_E_LQ_GL_ACCT_SEGMENT_D','INT_E_LQ_GL_BAL_SUM_OC_D','INT_E_LQ_GL_BAL_SUM_RC_D','INT_E_LQ_GL_RC_SEGMENT_D','INT_E_LQ_IM_ST_DAILY_D','INT_E_LQ_GL_OC_SEGMENT_D','INT_T_WLS_WLSPROD_01','INT_L_WLS_EDW_WLSPARAM','INT_L_WLS_EDW_WLSPROD','INT_T_RCR_EVENTCODE_01','INT_L_RCR_EVENTCODE','INT_T_CCP_TXNALSB2K_01','INT_L_CCP_EDW_TXNALSB2K']</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1891,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['INT_T_AML_ACCOUNT_DIM']</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,7 +1949,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WLS</t>
+          <t>NSS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1903,12 +1964,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WLS_DSF_MONTHLY</t>
+          <t>EDW_NSS_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1918,7 +1979,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>WLS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1933,24 +1994,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BI_DSF_RBF_DAILY</t>
+          <t>WLS_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CCB</t>
+          <t>LQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1965,12 +2024,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCB_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1980,7 +2039,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5DSF</t>
+          <t>CSENT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1995,12 +2054,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5DSF_DSF_DAILY</t>
+          <t>CSENT_DSF_DAILY</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2010,7 +2069,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LEAD_UL</t>
+          <t>OLS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2025,7 +2084,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EDW_UNS_LEAD_DAILY</t>
+          <t>EDW_OLS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2040,7 +2099,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>CCB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2055,7 +2114,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CVA_DSF_PER</t>
+          <t>CCB_DSF_PER</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2070,7 +2129,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>5DSF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2085,12 +2144,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FES_DSF_PER</t>
+          <t>5DSF_DSF_DAILY</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2100,7 +2159,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OBM</t>
+          <t>LEAD_UL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2115,12 +2174,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OBM_DSF_DAILY_HS</t>
+          <t>EDW_UNS_LEAD_DAILY</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2130,7 +2189,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2145,12 +2204,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BCC_DOWNSTEAM</t>
+          <t>GN_SRC_DAILY</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -2160,7 +2219,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PMH</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2175,12 +2234,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PMH_SRC_DAILY</t>
+          <t>BI_DSF_BOT_PER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2190,7 +2249,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IMEXI</t>
+          <t>CSM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2205,12 +2264,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IMEX_SRC_DAILY</t>
+          <t>CSM_DSF_DAILY</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2220,7 +2279,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IMEX</t>
+          <t>PMH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2235,12 +2294,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IMEX_SRC_DAILY</t>
+          <t>PMH_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2250,7 +2309,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>OBM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2265,12 +2324,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FES_DSF_DAILY</t>
+          <t>OBM_DSF_DAILY_HS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2280,7 +2339,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CDD</t>
+          <t>BCC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2295,12 +2354,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CDD_DSF_DAILY</t>
+          <t>BCC_DOWNSTEAM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2310,7 +2369,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>PMH</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2325,12 +2384,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BI_DSF_TAX_MONTHLY</t>
+          <t>PMH_SRC_DAILY</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2340,7 +2399,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>IMEXI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2355,12 +2414,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CSL_DSF_DAILY</t>
+          <t>IMEX_SRC_DAILY</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2370,7 +2429,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>IMEX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2385,12 +2444,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CB_DSF_MONTHLY</t>
+          <t>IMEX_SRC_DAILY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2400,7 +2459,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2415,24 +2474,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TMS_DSF_DAILY</t>
+          <t>FES_DSF_DAILY</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MVP2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GN</t>
+          <t>CDD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2447,12 +2504,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GN_SRC_DAILY</t>
+          <t>CDD_DSF_DAILY</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2462,7 +2519,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LEAD_UL</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2477,12 +2534,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EDW_UNS_LEAD_MONTHLY</t>
+          <t>BI_DSF_TAX_MONTHLY</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2492,7 +2549,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2507,12 +2564,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BI_DSF_EQU_MONTHLY</t>
+          <t>CVA_DSF_PER</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2522,7 +2579,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CCP</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2537,12 +2594,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CCP_DSF_WEEKLY</t>
+          <t>FES_DSF_PER</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2552,7 +2609,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2567,16 +2624,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EDW_SBG_DSF_MONTHLY</t>
+          <t>TMS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v/>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2597,7 +2656,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BI_DSF_BOT_MONTHLY</t>
+          <t>BI_DSF_EQU_MONTHLY</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2612,7 +2671,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSENT</t>
+          <t>LEAD_UL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2627,7 +2686,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CSENT_DSF_DAILY</t>
+          <t>EDW_UNS_LEAD_MONTHLY</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2642,7 +2701,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WLS</t>
+          <t>CCP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2657,7 +2716,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>CCP_DSF_WEEKLY</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2672,7 +2731,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OLS</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2687,12 +2746,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EDW_OLS_DSF_DAILY</t>
+          <t>EDW_SBG_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2702,7 +2761,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PMH</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2717,12 +2776,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PMH_DSF_MONTHLY</t>
+          <t>BI_DSF_BOT_MONTHLY</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2732,7 +2791,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MUREX</t>
+          <t>WLS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2747,12 +2806,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MUREX_SRC_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2762,7 +2821,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2777,24 +2836,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ATM_DSF_MONTHLY</t>
+          <t>RM_DAILY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MVP2</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2809,7 +2866,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WSS_DSF_DAILY</t>
+          <t>AM_DSF_YEARLY</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2824,7 +2881,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CCB</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2839,12 +2896,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CCB_DSF_AML_PER</t>
+          <t>CFO_DSF_DAILY</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2854,7 +2911,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>MUREX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2869,7 +2926,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INV_SRC_DAILY</t>
+          <t>MUREX_SRC_DAILY</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2884,7 +2941,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EFS</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2899,7 +2956,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EDW_EFS_DAILY</t>
+          <t>ATM_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2907,14 +2964,16 @@
           <t>MVP2</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PMH</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2929,12 +2988,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PMH_DSF_DAILY</t>
+          <t>WSS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2944,7 +3003,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RDS</t>
+          <t>CCB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2959,12 +3018,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RDS_EP_DSF_PER</t>
+          <t>CCB_DSF_AML_PER</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2974,7 +3033,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2989,12 +3048,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SL_DSF_DAILY</t>
+          <t>INV_SRC_DAILY</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3004,7 +3063,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>EFS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3019,12 +3078,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MRP_DSF_MONTHLY</t>
+          <t>EDW_EFS_DAILY</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3034,7 +3093,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ESN</t>
+          <t>PMH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3049,12 +3108,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ESN_DSF_SYNC_DAILY</t>
+          <t>PMH_DSF_DAILY</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3064,7 +3123,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EDW</t>
+          <t>RDS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3079,12 +3138,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EDW_DMC MONTHLY</t>
+          <t>RDS_EP_DSF_PER</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3094,7 +3153,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3109,12 +3168,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BI_DSF_DAILY</t>
+          <t>SL_DSF_DAILY</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3124,7 +3183,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OLS</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3139,7 +3198,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EDW_OLS_B2K_DAILY</t>
+          <t>MRP_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3154,7 +3213,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LEAD_UL</t>
+          <t>ESN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3169,12 +3228,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LEAD_UL_SRC_DAILY</t>
+          <t>ESN_DSF_SYNC_DAILY</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3184,7 +3243,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CAL</t>
+          <t>EDW</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3199,12 +3258,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CAL_D_MONTHLY</t>
+          <t>EDW_DMC MONTHLY</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3214,7 +3273,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3229,12 +3288,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BCM_DSF_MONTHLY2</t>
+          <t>BI_DSF_DAILY</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3244,7 +3303,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LQ</t>
+          <t>OLS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3259,12 +3318,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LQ_DSF_MONTHLY</t>
+          <t>EDW_OLS_B2K_DAILY</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3274,7 +3333,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENL</t>
+          <t>LEAD_UL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3289,12 +3348,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ENL_DSF_WEEKLY</t>
+          <t>LEAD_UL_SRC_DAILY</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3304,7 +3363,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TRD</t>
+          <t>CAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3319,7 +3378,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TRD_DSF_PER</t>
+          <t>CAL_D_MONTHLY</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3334,7 +3393,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BIFI</t>
+          <t>BCM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3349,24 +3408,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BIFI_SRC_MONTHLY11</t>
+          <t>BCM_DSF_MONTHLY2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>LQ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3381,12 +3438,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CVA_DSF_DAILY</t>
+          <t>LQ_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3396,7 +3453,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>ENL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3411,12 +3468,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LCS_SRC_MONTHLY</t>
+          <t>ENL_DSF_WEEKLY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3426,7 +3483,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3441,12 +3498,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LCS_SRC_MONTHLY</t>
+          <t>CSL_DSF_DAILY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -3456,7 +3513,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LQ</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3471,12 +3528,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>CB_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3486,7 +3543,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BIFI</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3501,7 +3558,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BIFI_DSF_GL_MONTHLY12</t>
+          <t>BI_DSF_RBF_DAILY</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3509,14 +3566,16 @@
           <t>MVP4</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3531,24 +3590,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BI_DSF_FRC_MONTHLY</t>
+          <t>TRD_DSF_PER</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ESN</t>
+          <t>BIFI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3563,22 +3620,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ESN_DSF_DAILY</t>
+          <t>BIFI_SRC_MONTHLY11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MVP3</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v/>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IPS</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3593,12 +3652,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IPS_DSF_DAILY</t>
+          <t>BI_DSF_DDATE_YEARLY</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3608,7 +3667,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3623,12 +3682,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ATM_DSF_DAILY</t>
+          <t>LCS_SRC_MONTHLY</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3638,7 +3697,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AML</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3653,7 +3712,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>AML_DSF_PER</t>
+          <t>LCS_SRC_MONTHLY</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3668,7 +3727,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RCR</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3683,12 +3742,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RCR_DSF_DAILY</t>
+          <t>CVA_DSF_DAILY</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3698,7 +3757,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>BIFI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3713,12 +3772,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ATM_SRC_DAILY</t>
+          <t>BIFI_DSF_GL_MONTHLY12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3728,7 +3787,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>ESN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3743,12 +3802,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EDW_ESL_CC_WEEKLY</t>
+          <t>ESN_DSF_DAILY</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3758,7 +3817,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RBF</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3773,22 +3832,24 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RBF_DSF_PERREQUEST</t>
+          <t>BI_DSF_FRC_MONTHLY</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MVP3</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v/>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ACTM</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3803,12 +3864,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ACTM_DSF_DAILY</t>
+          <t>ATM_DSF_DAILY</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3818,7 +3879,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RBF</t>
+          <t>RCR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3833,12 +3894,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RBF_DSF_REPORT_DAILY</t>
+          <t>RCR_DSF_DAILY</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3848,7 +3909,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PLPS</t>
+          <t>AML</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3863,12 +3924,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PLPS_SRC_DAILY</t>
+          <t>AML_DSF_PER</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3878,7 +3939,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AML</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3893,12 +3954,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AML_DSF_DAILY3</t>
+          <t>ATM_SRC_DAILY</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3908,7 +3969,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TRD</t>
+          <t>RBF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3923,7 +3984,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TRD_DSF_MONTHLY</t>
+          <t>RBF_DSF_PERREQUEST</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3938,7 +3999,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHYO</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3953,12 +4014,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CHYO_DSF_DAILY</t>
+          <t>EDW_ESL_CC_WEEKLY</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3968,7 +4029,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TRD</t>
+          <t>ACTM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3983,7 +4044,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TRD_DSF_DAILY</t>
+          <t>ACTM_DSF_DAILY</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3998,7 +4059,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>IPS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4013,12 +4074,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CB_DSF_MONTHLY2</t>
+          <t>IPS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -4028,7 +4089,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CIM</t>
+          <t>PLPS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4043,12 +4104,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CIM_DSF_MONTHLY_EXT</t>
+          <t>PLPS_SRC_DAILY</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -4058,7 +4119,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PDPA</t>
+          <t>B2K</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4073,12 +4134,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PDPA_DSF_DAILY</t>
+          <t>B2K_SRC_DAILY</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -4088,7 +4149,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>AML</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4103,12 +4164,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>BI_DSF_MONTHLY</t>
+          <t>AML_DSF_DAILY3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -4118,7 +4179,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>CHYO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4133,24 +4194,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>EDW_ESL_MONTHLY_HP_DAY15</t>
+          <t>CHYO_DSF_DAILY</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>RBF</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4165,12 +4224,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EDW_ESL_MONTHLY_LCS</t>
+          <t>RBF_DSF_REPORT_DAILY</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4180,7 +4239,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4195,12 +4254,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EDW_SBG_DSF_DAILY</t>
+          <t>CB_DSF_MONTHLY2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4210,7 +4269,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>PDPA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4225,12 +4284,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BI_DSF_MIS_PER</t>
+          <t>PDPA_DSF_DAILY</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4240,7 +4299,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4255,12 +4314,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EDW_ESL_DAILY</t>
+          <t>TRD_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4270,7 +4329,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4285,12 +4344,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AM_SRC_DAILY</t>
+          <t>BI_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4300,7 +4359,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MMS</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4315,12 +4374,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MMS_SRC_DAILY</t>
+          <t>EDW_ESL_MONTHLY_LCS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4330,7 +4389,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NSS</t>
+          <t>CIM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4345,7 +4404,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>EDW_NSS_DSF_MONTHLY</t>
+          <t>CIM_DSF_MONTHLY_EXT</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4360,7 +4419,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EDW</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4375,7 +4434,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EDW_SRC_PER</t>
+          <t>EDW_SBG_DSF_DAILY</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4383,16 +4442,14 @@
           <t>MVP4</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+      <c r="F84" t="n">
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4407,12 +4464,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BI_DSF_BOT_PER</t>
+          <t>TRD_DSF_DAILY</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4422,7 +4479,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AML</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4437,12 +4494,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>AML_DSF_DAILY1</t>
+          <t>EDW_ESL_DAILY</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4452,7 +4509,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRM</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4467,22 +4524,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PRM_DSF_DAILY</t>
+          <t>EDW_ESL_MONTHLY_HP_DAY15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MVP3</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v/>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CSM</t>
+          <t>MMS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4497,12 +4556,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CSM_DSF_DAILY</t>
+          <t>MMS_SRC_DAILY</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4512,7 +4571,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4527,12 +4586,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>AM_DSF_YEARLY</t>
+          <t>BI_DSF_MIS_PER</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4542,7 +4601,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>EDW</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4557,45 +4616,137 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CFO_DSF_DAILY</t>
+          <t>EDW_SRC_PER</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MVP2</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v/>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>AM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>SCBL</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SYSTEM_NAME</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>DS_INT_CONFIG</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>SCBL_DSF_DAILY</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>MVP6</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F94" t="n">
         <v/>
       </c>
     </row>
@@ -4628,7 +4779,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PMH,IMEXI,IMEX,GN,MUREX,INV,LEAD_UL,LCS,ATM,PLPS,AM,MMS</t>
+          <t>GN,PMH,IMEXI,IMEX,RM,MUREX,INV,LEAD_UL,LCS,ATM,PLPS,B2K,MMS,AM</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4793,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WLS,TMS,CCP,PMH,ATM,EFS,BCM,LQ,IPS,RCR,CHYO,PDPA,CFO</t>
+          <t>WLS,LQ,PMH,TMS,CCP,CFO,ATM,EFS,BCM,RCR,IPS,CHYO,PDPA</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4807,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCB,LEAD_UL,CVA,FES,BCC,CSL,CB,CSENT,OLS,WSS,SL,MRP,ESN,CAL,TRD,RBF,ACTM,CIM,NSS,PRM,AM</t>
+          <t>NSS,CSENT,OLS,CCB,LEAD_UL,BCC,FES,CVA,AM,WSS,SL,MRP,ESN,CAL,CSL,CB,TRD,RBF,ACTM,CIM,PRM</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4835,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5DSF,OBM,CDD,RDS,ENL,LCS,AML,CSM,SCBL</t>
+          <t>5DSF,CSM,OBM,CDD,RDS,ENL,LCS,AML,SCBL</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4747,7 +4898,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WLS</t>
+          <t>NSS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4762,17 +4913,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WLS_DSF_MONTHLY</t>
+          <t>EDW_NSS_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_WLS</t>
+          <t>REGISTER_CONFIG_SYSTEM_NSS</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -4782,7 +4933,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>WLS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4797,29 +4948,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BI_DSF_RBF_DAILY</t>
+          <t>WLS_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_WLS</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CCB</t>
+          <t>LQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4834,17 +4983,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCB_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CCB</t>
+          <t>REGISTER_CONFIG_SYSTEM_LQ</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -4854,7 +5003,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5DSF</t>
+          <t>CSENT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4869,17 +5018,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5DSF_DSF_DAILY</t>
+          <t>CSENT_DSF_DAILY</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_5DSF</t>
+          <t>REGISTER_CONFIG_SYSTEM_CSENT</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -4889,7 +5038,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LEAD_UL</t>
+          <t>OLS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4904,7 +5053,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EDW_UNS_LEAD_DAILY</t>
+          <t>EDW_OLS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4914,7 +5063,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
+          <t>REGISTER_CONFIG_SYSTEM_OLS</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -4924,7 +5073,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>CCB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4939,7 +5088,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CVA_DSF_PER</t>
+          <t>CCB_DSF_PER</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -4949,7 +5098,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CVA</t>
+          <t>REGISTER_CONFIG_SYSTEM_CCB</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -4959,7 +5108,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>5DSF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4974,17 +5123,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FES_DSF_PER</t>
+          <t>5DSF_DSF_DAILY</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_FES</t>
+          <t>REGISTER_CONFIG_SYSTEM_5DSF</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -4994,7 +5143,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OBM</t>
+          <t>LEAD_UL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5009,17 +5158,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>OBM_DSF_DAILY_HS</t>
+          <t>EDW_UNS_LEAD_DAILY</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_OBM</t>
+          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -5029,7 +5178,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCC</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5044,17 +5193,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BCC_DOWNSTEAM</t>
+          <t>GN_SRC_DAILY</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BCC</t>
+          <t>REGISTER_CONFIG_SYSTEM_GN</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -5064,7 +5213,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PMH</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5079,17 +5228,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PMH_SRC_DAILY</t>
+          <t>BI_DSF_BOT_PER</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -5099,7 +5248,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IMEXI</t>
+          <t>CSM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5114,17 +5263,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IMEX_SRC_DAILY</t>
+          <t>CSM_DSF_DAILY</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_IMEXI</t>
+          <t>REGISTER_CONFIG_SYSTEM_CSM</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -5134,7 +5283,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IMEX</t>
+          <t>PMH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5149,17 +5298,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IMEX_SRC_DAILY</t>
+          <t>PMH_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_IMEX</t>
+          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5169,7 +5318,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FES</t>
+          <t>OBM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5184,17 +5333,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FES_DSF_DAILY</t>
+          <t>OBM_DSF_DAILY_HS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_FES</t>
+          <t>REGISTER_CONFIG_SYSTEM_OBM</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -5204,7 +5353,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CDD</t>
+          <t>BCC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5219,17 +5368,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CDD_DSF_DAILY</t>
+          <t>BCC_DOWNSTEAM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CDD</t>
+          <t>REGISTER_CONFIG_SYSTEM_BCC</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -5239,7 +5388,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>PMH</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5254,17 +5403,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BI_DSF_TAX_MONTHLY</t>
+          <t>PMH_SRC_DAILY</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -5274,7 +5423,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>IMEXI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5289,17 +5438,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CSL_DSF_DAILY</t>
+          <t>IMEX_SRC_DAILY</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CSL</t>
+          <t>REGISTER_CONFIG_SYSTEM_IMEXI</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -5309,7 +5458,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>IMEX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5324,17 +5473,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CB_DSF_MONTHLY</t>
+          <t>IMEX_SRC_DAILY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CB</t>
+          <t>REGISTER_CONFIG_SYSTEM_IMEX</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -5344,7 +5493,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMS</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5359,29 +5508,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TMS_DSF_DAILY</t>
+          <t>FES_DSF_DAILY</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_TMS</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_FES</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GN</t>
+          <t>CDD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -5396,17 +5543,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GN_SRC_DAILY</t>
+          <t>CDD_DSF_DAILY</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_GN</t>
+          <t>REGISTER_CONFIG_SYSTEM_CDD</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -5416,7 +5563,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LEAD_UL</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5431,17 +5578,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EDW_UNS_LEAD_MONTHLY</t>
+          <t>BI_DSF_TAX_MONTHLY</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -5451,7 +5598,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5466,17 +5613,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BI_DSF_EQU_MONTHLY</t>
+          <t>CVA_DSF_PER</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+          <t>REGISTER_CONFIG_SYSTEM_CVA</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -5486,7 +5633,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CCP</t>
+          <t>FES</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5501,17 +5648,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CCP_DSF_WEEKLY</t>
+          <t>FES_DSF_PER</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CCP</t>
+          <t>REGISTER_CONFIG_SYSTEM_FES</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -5521,7 +5668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>TMS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5536,21 +5683,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EDW_SBG_DSF_MONTHLY</t>
+          <t>TMS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_SBG</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_TMS</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -5571,7 +5720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BI_DSF_BOT_MONTHLY</t>
+          <t>BI_DSF_EQU_MONTHLY</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5591,7 +5740,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CSENT</t>
+          <t>LEAD_UL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5606,7 +5755,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CSENT_DSF_DAILY</t>
+          <t>EDW_UNS_LEAD_MONTHLY</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5616,7 +5765,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CSENT</t>
+          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -5626,7 +5775,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WLS</t>
+          <t>CCP</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5641,7 +5790,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>CCP_DSF_WEEKLY</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5651,7 +5800,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_WLS</t>
+          <t>REGISTER_CONFIG_SYSTEM_CCP</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -5661,7 +5810,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OLS</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5676,17 +5825,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EDW_OLS_DSF_DAILY</t>
+          <t>EDW_SBG_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_OLS</t>
+          <t>REGISTER_CONFIG_SYSTEM_SBG</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -5696,7 +5845,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PMH</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5711,17 +5860,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PMH_DSF_MONTHLY</t>
+          <t>BI_DSF_BOT_MONTHLY</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -5731,7 +5880,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MUREX</t>
+          <t>WLS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5746,17 +5895,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MUREX_SRC_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_MUREX</t>
+          <t>REGISTER_CONFIG_SYSTEM_WLS</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -5766,7 +5915,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5781,29 +5930,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ATM_DSF_MONTHLY</t>
+          <t>RM_DAILY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_RM</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WSS</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5818,7 +5965,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WSS_DSF_DAILY</t>
+          <t>AM_DSF_YEARLY</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5828,7 +5975,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_WSS</t>
+          <t>REGISTER_CONFIG_SYSTEM_AM</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -5838,7 +5985,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CCB</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5853,17 +6000,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CCB_DSF_AML_PER</t>
+          <t>CFO_DSF_DAILY</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CCB</t>
+          <t>REGISTER_CONFIG_SYSTEM_CFO</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -5873,7 +6020,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>MUREX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5888,7 +6035,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INV_SRC_DAILY</t>
+          <t>MUREX_SRC_DAILY</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -5898,7 +6045,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_INV</t>
+          <t>REGISTER_CONFIG_SYSTEM_MUREX</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -5908,7 +6055,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EFS</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5923,7 +6070,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EDW_EFS_DAILY</t>
+          <t>ATM_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5933,17 +6080,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_EFS</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PMH</t>
+          <t>WSS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5958,17 +6107,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PMH_DSF_DAILY</t>
+          <t>WSS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
+          <t>REGISTER_CONFIG_SYSTEM_WSS</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -5978,7 +6127,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RDS</t>
+          <t>CCB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5993,17 +6142,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RDS_EP_DSF_PER</t>
+          <t>CCB_DSF_AML_PER</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_RDS</t>
+          <t>REGISTER_CONFIG_SYSTEM_CCB</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -6013,7 +6162,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6028,17 +6177,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SL_DSF_DAILY</t>
+          <t>INV_SRC_DAILY</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_SL</t>
+          <t>REGISTER_CONFIG_SYSTEM_INV</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -6048,7 +6197,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MRP</t>
+          <t>EFS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6063,17 +6212,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MRP_DSF_MONTHLY</t>
+          <t>EDW_EFS_DAILY</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_MRP</t>
+          <t>REGISTER_CONFIG_SYSTEM_EFS</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -6083,7 +6232,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ESN</t>
+          <t>PMH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6098,17 +6247,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ESN_DSF_SYNC_DAILY</t>
+          <t>PMH_DSF_DAILY</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ESN</t>
+          <t>REGISTER_CONFIG_SYSTEM_PMH</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -6118,7 +6267,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EDW</t>
+          <t>RDS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6133,17 +6282,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EDW_DMC MONTHLY</t>
+          <t>RDS_EP_DSF_PER</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_EDW</t>
+          <t>REGISTER_CONFIG_SYSTEM_RDS</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -6153,7 +6302,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6168,17 +6317,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BI_DSF_DAILY</t>
+          <t>SL_DSF_DAILY</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+          <t>REGISTER_CONFIG_SYSTEM_SL</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -6188,7 +6337,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OLS</t>
+          <t>MRP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6203,7 +6352,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EDW_OLS_B2K_DAILY</t>
+          <t>MRP_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -6213,7 +6362,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_OLS</t>
+          <t>REGISTER_CONFIG_SYSTEM_MRP</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -6223,7 +6372,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LEAD_UL</t>
+          <t>ESN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6238,17 +6387,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LEAD_UL_SRC_DAILY</t>
+          <t>ESN_DSF_SYNC_DAILY</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
+          <t>REGISTER_CONFIG_SYSTEM_ESN</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -6258,7 +6407,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CAL</t>
+          <t>EDW</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6273,17 +6422,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CAL_D_MONTHLY</t>
+          <t>EDW_DMC MONTHLY</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CAL</t>
+          <t>REGISTER_CONFIG_SYSTEM_EDW</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -6293,7 +6442,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6308,17 +6457,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BCM_DSF_MONTHLY2</t>
+          <t>BI_DSF_DAILY</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BCM</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -6328,7 +6477,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LQ</t>
+          <t>OLS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6343,17 +6492,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LQ_DSF_MONTHLY</t>
+          <t>EDW_OLS_B2K_DAILY</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LQ</t>
+          <t>REGISTER_CONFIG_SYSTEM_OLS</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -6363,7 +6512,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENL</t>
+          <t>LEAD_UL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6378,17 +6527,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ENL_DSF_WEEKLY</t>
+          <t>LEAD_UL_SRC_DAILY</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ENL</t>
+          <t>REGISTER_CONFIG_SYSTEM_LEAD_UL</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -6398,7 +6547,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TRD</t>
+          <t>CAL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6413,7 +6562,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TRD_DSF_PER</t>
+          <t>CAL_D_MONTHLY</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6423,7 +6572,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+          <t>REGISTER_CONFIG_SYSTEM_CAL</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -6433,7 +6582,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BIFI</t>
+          <t>BCM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6448,29 +6597,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BIFI_SRC_MONTHLY11</t>
+          <t>BCM_DSF_MONTHLY2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BIFI</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_BCM</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CVA</t>
+          <t>LQ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6485,17 +6632,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CVA_DSF_DAILY</t>
+          <t>LQ_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CVA</t>
+          <t>REGISTER_CONFIG_SYSTEM_LQ</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -6505,7 +6652,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>ENL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6520,17 +6667,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LCS_SRC_MONTHLY</t>
+          <t>ENL_DSF_WEEKLY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LCS</t>
+          <t>REGISTER_CONFIG_SYSTEM_ENL</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -6540,7 +6687,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LCS</t>
+          <t>CSL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6555,17 +6702,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LCS_SRC_MONTHLY</t>
+          <t>CSL_DSF_DAILY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LCS</t>
+          <t>REGISTER_CONFIG_SYSTEM_CSL</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -6575,7 +6722,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LQ</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6590,17 +6737,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>CB_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_LQ</t>
+          <t>REGISTER_CONFIG_SYSTEM_CB</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -6610,7 +6757,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BIFI</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6625,7 +6772,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BIFI_DSF_GL_MONTHLY12</t>
+          <t>BI_DSF_RBF_DAILY</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6635,17 +6782,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BIFI</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6660,29 +6809,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BI_DSF_FRC_MONTHLY</t>
+          <t>TRD_DSF_PER</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ESN</t>
+          <t>BIFI</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6697,27 +6844,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ESN_DSF_DAILY</t>
+          <t>BIFI_SRC_MONTHLY11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ESN</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_BIFI</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IPS</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6732,17 +6881,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>IPS_DSF_DAILY</t>
+          <t>BI_DSF_DDATE_YEARLY</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_IPS</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -6752,7 +6901,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6767,17 +6916,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ATM_DSF_DAILY</t>
+          <t>LCS_SRC_MONTHLY</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
+          <t>REGISTER_CONFIG_SYSTEM_LCS</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -6787,7 +6936,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AML</t>
+          <t>LCS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6802,7 +6951,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>AML_DSF_PER</t>
+          <t>LCS_SRC_MONTHLY</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -6812,7 +6961,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+          <t>REGISTER_CONFIG_SYSTEM_LCS</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -6822,7 +6971,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RCR</t>
+          <t>CVA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6837,17 +6986,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RCR_DSF_DAILY</t>
+          <t>CVA_DSF_DAILY</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_RCR</t>
+          <t>REGISTER_CONFIG_SYSTEM_CVA</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6857,7 +7006,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>BIFI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6872,17 +7021,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ATM_SRC_DAILY</t>
+          <t>BIFI_DSF_GL_MONTHLY12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
+          <t>REGISTER_CONFIG_SYSTEM_BIFI</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6892,7 +7041,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>ESN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6907,17 +7056,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EDW_ESL_CC_WEEKLY</t>
+          <t>ESN_DSF_DAILY</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+          <t>REGISTER_CONFIG_SYSTEM_ESN</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6927,7 +7076,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RBF</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6942,27 +7091,29 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RBF_DSF_PERREQUEST</t>
+          <t>BI_DSF_FRC_MONTHLY</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_RBF</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ACTM</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6977,17 +7128,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ACTM_DSF_DAILY</t>
+          <t>ATM_DSF_DAILY</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ACTM</t>
+          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6997,7 +7148,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RBF</t>
+          <t>RCR</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7012,17 +7163,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RBF_DSF_REPORT_DAILY</t>
+          <t>RCR_DSF_DAILY</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_RBF</t>
+          <t>REGISTER_CONFIG_SYSTEM_RCR</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -7032,7 +7183,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PLPS</t>
+          <t>AML</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7047,17 +7198,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PLPS_SRC_DAILY</t>
+          <t>AML_DSF_PER</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_PLPS</t>
+          <t>REGISTER_CONFIG_SYSTEM_AML</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -7067,7 +7218,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AML</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7082,17 +7233,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AML_DSF_DAILY3</t>
+          <t>ATM_SRC_DAILY</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+          <t>REGISTER_CONFIG_SYSTEM_ATM</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -7102,7 +7253,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TRD</t>
+          <t>RBF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -7117,7 +7268,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>TRD_DSF_MONTHLY</t>
+          <t>RBF_DSF_PERREQUEST</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7127,7 +7278,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+          <t>REGISTER_CONFIG_SYSTEM_RBF</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -7137,7 +7288,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHYO</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7152,17 +7303,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CHYO_DSF_DAILY</t>
+          <t>EDW_ESL_CC_WEEKLY</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CHYO</t>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -7172,7 +7323,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TRD</t>
+          <t>ACTM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7187,7 +7338,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TRD_DSF_DAILY</t>
+          <t>ACTM_DSF_DAILY</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -7197,7 +7348,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
+          <t>REGISTER_CONFIG_SYSTEM_ACTM</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -7207,7 +7358,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>IPS</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7222,17 +7373,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CB_DSF_MONTHLY2</t>
+          <t>IPS_DSF_DAILY</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CB</t>
+          <t>REGISTER_CONFIG_SYSTEM_IPS</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7242,7 +7393,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CIM</t>
+          <t>PLPS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7257,17 +7408,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CIM_DSF_MONTHLY_EXT</t>
+          <t>PLPS_SRC_DAILY</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CIM</t>
+          <t>REGISTER_CONFIG_SYSTEM_PLPS</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7277,7 +7428,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PDPA</t>
+          <t>B2K</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -7292,17 +7443,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PDPA_DSF_DAILY</t>
+          <t>B2K_SRC_DAILY</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_PDPA</t>
+          <t>REGISTER_CONFIG_SYSTEM_B2K</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7312,7 +7463,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>AML</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -7327,17 +7478,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>BI_DSF_MONTHLY</t>
+          <t>AML_DSF_DAILY3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP6</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+          <t>REGISTER_CONFIG_SYSTEM_AML</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7347,7 +7498,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>CHYO</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -7362,29 +7513,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>EDW_ESL_MONTHLY_HP_DAY15</t>
+          <t>CHYO_DSF_DAILY</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_CHYO</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>RBF</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -7399,17 +7548,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EDW_ESL_MONTHLY_LCS</t>
+          <t>RBF_DSF_REPORT_DAILY</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+          <t>REGISTER_CONFIG_SYSTEM_RBF</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7419,7 +7568,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SBG</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -7434,17 +7583,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EDW_SBG_DSF_DAILY</t>
+          <t>CB_DSF_MONTHLY2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_SBG</t>
+          <t>REGISTER_CONFIG_SYSTEM_CB</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7454,7 +7603,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>PDPA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7469,17 +7618,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BI_DSF_MIS_PER</t>
+          <t>PDPA_DSF_DAILY</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+          <t>REGISTER_CONFIG_SYSTEM_PDPA</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7489,7 +7638,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ESL</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7504,17 +7653,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EDW_ESL_DAILY</t>
+          <t>TRD_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7524,7 +7673,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7539,17 +7688,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AM_SRC_DAILY</t>
+          <t>BI_DSF_MONTHLY</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_AM</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7559,7 +7708,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MMS</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -7574,17 +7723,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>MMS_SRC_DAILY</t>
+          <t>EDW_ESL_MONTHLY_LCS</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_MMS</t>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7594,7 +7743,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NSS</t>
+          <t>CIM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7609,7 +7758,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>EDW_NSS_DSF_MONTHLY</t>
+          <t>CIM_DSF_MONTHLY_EXT</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7619,7 +7768,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_NSS</t>
+          <t>REGISTER_CONFIG_SYSTEM_CIM</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -7629,7 +7778,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EDW</t>
+          <t>SBG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -7644,7 +7793,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EDW_SRC_PER</t>
+          <t>EDW_SBG_DSF_DAILY</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7654,19 +7803,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_EDW</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
+          <t>REGISTER_CONFIG_SYSTEM_SBG</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -7681,17 +7828,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BI_DSF_BOT_PER</t>
+          <t>TRD_DSF_DAILY</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MVP4</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_BI</t>
+          <t>REGISTER_CONFIG_SYSTEM_TRD</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -7701,7 +7848,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AML</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7716,17 +7863,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>AML_DSF_DAILY1</t>
+          <t>EDW_ESL_DAILY</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -7736,7 +7883,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRM</t>
+          <t>ESL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7751,27 +7898,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PRM_DSF_DAILY</t>
+          <t>EDW_ESL_MONTHLY_HP_DAY15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_PRM</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_ESL</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CSM</t>
+          <t>MMS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7786,17 +7935,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CSM_DSF_DAILY</t>
+          <t>MMS_SRC_DAILY</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MVP6</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CSM</t>
+          <t>REGISTER_CONFIG_SYSTEM_MMS</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -7806,7 +7955,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -7821,17 +7970,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>AM_DSF_YEARLY</t>
+          <t>BI_DSF_MIS_PER</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_AM</t>
+          <t>REGISTER_CONFIG_SYSTEM_BI</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -7841,7 +7990,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>EDW</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -7856,55 +8005,162 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CFO_DSF_DAILY</t>
+          <t>EDW_SRC_PER</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP4</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>REGISTER_CONFIG_SYSTEM_CFO</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v/>
+          <t>REGISTER_CONFIG_SYSTEM_EDW</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AML</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>AM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_AM</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>REGISTER_CONFIG_SYSTEM_PRM</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>SCBL</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SYSTEM_NAME</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>DS_INT_CONFIG</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>SCBL_DSF_DAILY</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>MVP6</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>REGISTER_CONFIG_SYSTEM_SCBL</t>
         </is>
       </c>
-      <c r="G91" t="n">
+      <c r="G94" t="n">
         <v/>
       </c>
     </row>
@@ -7937,7 +8193,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_IMEXI','REGISTER_CONFIG_SYSTEM_IMEX','REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_MMS']</t>
+          <t>['REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_IMEXI','REGISTER_CONFIG_SYSTEM_IMEX','REGISTER_CONFIG_SYSTEM_RM','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_B2K','REGISTER_CONFIG_SYSTEM_MMS','REGISTER_CONFIG_SYSTEM_AM']</t>
         </is>
       </c>
     </row>
@@ -7951,7 +8207,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_WLS','REGISTER_CONFIG_SYSTEM_TMS','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_CHYO','REGISTER_CONFIG_SYSTEM_PDPA','REGISTER_CONFIG_SYSTEM_CFO']</t>
+          <t>['REGISTER_CONFIG_SYSTEM_WLS','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_TMS','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_CFO','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_CHYO','REGISTER_CONFIG_SYSTEM_PDPA']</t>
         </is>
       </c>
     </row>
@@ -7965,7 +8221,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_CSL','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_WSS','REGISTER_CONFIG_SYSTEM_SL','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_CAL','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_CIM','REGISTER_CONFIG_SYSTEM_NSS','REGISTER_CONFIG_SYSTEM_PRM','REGISTER_CONFIG_SYSTEM_AM']</t>
+          <t>['REGISTER_CONFIG_SYSTEM_NSS','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_WSS','REGISTER_CONFIG_SYSTEM_SL','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_CAL','REGISTER_CONFIG_SYSTEM_CSL','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_CIM','REGISTER_CONFIG_SYSTEM_PRM']</t>
         </is>
       </c>
     </row>
@@ -7993,7 +8249,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['REGISTER_CONFIG_SYSTEM_5DSF','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_SCBL']</t>
+          <t>['REGISTER_CONFIG_SYSTEM_5DSF','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_SCBL']</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8307,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FILE,WLS_WLSPROD_1_0</t>
+          <t>FILE,VLQ_08_GL_BAL_SUM_OC_D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -8066,7 +8322,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8081,7 +8337,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FILE,WLS_WLSPARAM_1_0</t>
+          <t>VEULQ,VLQ_06_GL_PROD_SEGMENT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8096,7 +8352,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WLS_DSF_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8111,7 +8367,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DSGEDW,CCB_PARM_CCB_BAL_TYPE_1_0</t>
+          <t>VEULQ,VLQ_05_GL_ACCT_SEGMENT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8126,12 +8382,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCB_DSF_AML_PER</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MVP3</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -8141,7 +8397,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FILE,VLQ_08_GL_BAL_SUM_OC_D</t>
+          <t>FILE,VLQ_01_IM_ST_DAILY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8171,7 +8427,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_03_GL_RC_SEGMENT</t>
+          <t>VEULQ,VLQ_01_IM_ST_DAILY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8201,7 +8457,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_05_GL_ACCT_SEGMENT</t>
+          <t>VEULQ,VLQ_03_GL_RC_SEGMENT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8231,7 +8487,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_07_GL_BAL_SUM_RC_D</t>
+          <t>FILE,VLQ_09_LN_BR_FOREIGN_MKT_D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8261,7 +8517,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FILE,VLQ_01_IM_ST_DAILY</t>
+          <t>FILE,VLQ_07_GL_BAL_SUM_RC_D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8291,7 +8547,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_09_LN_BR_FOREIGN_MKT_D</t>
+          <t>VEULQ,VLQ_08_GL_BAL_SUM_OC_D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8321,7 +8577,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_04_GL_OC_SEGMENT</t>
+          <t>FILE,VLQ_03_GL_RC_SEGMENT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8351,7 +8607,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FILE,VLQ_05_GL_ACCT_SEGMENT</t>
+          <t>VEULQ,VLQ_07_GL_BAL_SUM_RC_D</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8381,7 +8637,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FILE,VLQ_07_GL_BAL_SUM_RC_D</t>
+          <t>VEULQ,VLQ_09_LN_BR_FOREIGN_MKT_D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8411,7 +8667,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FILE,VLQ_04_GL_OC_SEGMENT</t>
+          <t>FILE,VLQ_06_GL_PROD_SEGMENT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8441,7 +8697,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_08_GL_BAL_SUM_OC_D</t>
+          <t>VEULQ,VLQ_04_GL_OC_SEGMENT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8471,7 +8727,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_06_GL_PROD_SEGMENT</t>
+          <t>FILE,VLQ_05_GL_ACCT_SEGMENT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8501,7 +8757,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VEULQ,VLQ_01_IM_ST_DAILY</t>
+          <t>FILE,VLQ_04_GL_OC_SEGMENT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8531,7 +8787,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FILE,VLQ_09_LN_BR_FOREIGN_MKT_D</t>
+          <t>FILE,WLS_WLSPROD_1_0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8546,7 +8802,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8561,7 +8817,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FILE,VLQ_03_GL_RC_SEGMENT</t>
+          <t>FILE,WLS_WLSPARAM_1_0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8576,7 +8832,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>WLS_DSF_PER</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8591,7 +8847,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FILE,VLQ_06_GL_PROD_SEGMENT</t>
+          <t>DSGEDW,CCB_PARM_CCB_BAL_TYPE_1_0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -8606,12 +8862,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>CCB_DSF_AML_PER</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP3</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -8795,7 +9051,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schema: ['FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','FILE','VEULQ','VEULQ','FILE','FILE','FILE','VEULQ','VEULQ','VEULQ','FILE','FILE','FILE','VEURCR','FILE','FILE']</t>
+          <t>schema: ['FILE','VEULQ','VEULQ','FILE','VEULQ','VEULQ','FILE','FILE','VEULQ','FILE','VEULQ','VEULQ','FILE','VEULQ','FILE','FILE','FILE','FILE','VEURCR','FILE','FILE']</t>
         </is>
       </c>
     </row>
@@ -8809,7 +9065,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>table: ['WLS_WLSPROD_1_0','WLS_WLSPARAM_1_0','VLQ_08_GL_BAL_SUM_OC_D','VLQ_03_GL_RC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_01_IM_ST_DAILY','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_04_GL_OC_SEGMENT','VLQ_08_GL_BAL_SUM_OC_D','VLQ_06_GL_PROD_SEGMENT','VLQ_01_IM_ST_DAILY','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_03_GL_RC_SEGMENT','VLQ_06_GL_PROD_SEGMENT','VRCR_FES_RCNCL_PNTX_TIMEOUT','VRCR_FES_RCNCL_PNTX_TIMEOUT','CCP_TXNALSB2K_1_0']</t>
+          <t>table: ['VLQ_08_GL_BAL_SUM_OC_D','VLQ_06_GL_PROD_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_01_IM_ST_DAILY','VLQ_01_IM_ST_DAILY','VLQ_03_GL_RC_SEGMENT','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_07_GL_BAL_SUM_RC_D','VLQ_08_GL_BAL_SUM_OC_D','VLQ_03_GL_RC_SEGMENT','VLQ_07_GL_BAL_SUM_RC_D','VLQ_09_LN_BR_FOREIGN_MKT_D','VLQ_06_GL_PROD_SEGMENT','VLQ_04_GL_OC_SEGMENT','VLQ_05_GL_ACCT_SEGMENT','VLQ_04_GL_OC_SEGMENT','WLS_WLSPROD_1_0','WLS_WLSPARAM_1_0','VRCR_FES_RCNCL_PNTX_TIMEOUT','VRCR_FES_RCNCL_PNTX_TIMEOUT','CCP_TXNALSB2K_1_0']</t>
         </is>
       </c>
     </row>

--- a/output/2023-03-03/gen_parameter_20230303.xlsx
+++ b/output/2023-03-03/gen_parameter_20230303.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,15 +54,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -431,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -908,7 +908,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1006,7 +1006,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1807,7 +1807,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1896,7 +1896,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4751,7 +4751,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4840,7 +4840,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -8165,7 +8165,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -8254,7 +8254,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -8995,7 +8995,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -9154,6 +9154,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>